--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,11 @@
           <t>A12</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Student_ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -726,6 +731,11 @@
       <c r="AD2" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>742204a0c06b4243c51d2f8cc8171547ff4e1be06689bac68f4bd3daa82c01fc</t>
         </is>
       </c>
     </row>
@@ -887,6 +897,11 @@
 5. Todos los intentos se comparan al final.</t>
         </is>
       </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>dc7da1afe2ab22457624ae285b3afbed46676a52a49d27700ce9fc3e03500368</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1039,6 +1054,11 @@
           <t>Se inicia una pila y se empieza por la raiz del arbol, se agrega a la pila el nodo actual, seguido se hace un algoritmo que baje por la rama más profunda y por cada nodo visitado no nulo se agrega a la pila (el algoritmo baja por la rama en forma directa al fondo), cuando el algoritmo haya llegado al ultimo nodo, solo queda contar la cantidad de nodos almacenados en la pila y así se sabe cual es la profundidad del árbol.</t>
         </is>
       </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>1fa3d32f38c620fd342f024ff944a0a6fe9c2da5fb692c3e5e2b5f2e2ae746a6</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1191,6 +1211,11 @@
           <t>Crear dos colas, que llamaremos "cola1" y "cola2" Para realizar la operación de "push" en la pila vamos agregar el elemento al final de la "cola1" para realizar la operación de "pop" en la pila vamos a mover todos los elementos de la "cola1" a la "cola2" excepto el último elemento luego eliminar el último elemento de la "cola1" tambien intercambiar el nombre de "cola1" y "cola2". Para realizar la operación de "top" en la pila se va a mover todos los elementos de la "cola1" a la "cola2" excepto el último elemento seguido de eso obtener el último elemento de la "cola1" e intercambiar el nombre de "cola1" y "cola2" Para verificar si la pila está vacía: La pila estará vacía si ambas colas están vacías.</t>
         </is>
       </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>6c50eafcf7893c77b4b9b1e39df501b65e2cd9c65a0e7a70b1e0ba8e891c0bf3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1339,6 +1364,11 @@
           <t xml:space="preserve">Se ingresa la secuencia de llaves y corchetes a evaluar. La pila la podríamos implementar con un arreglo. 
 En esta función, se encontraría el elemento que se encuentra en el top de la pila, este se compara con el último elemento ingresado a la pila, si estos son iguales se continua con la ejecución del código, comprobando sucesivamente el top con el último dato ingresado , si estos son siempre verdaderos, se imprime un mensaje y tenemos que la secuencia ingresada es palíndromo, de lo contrario el booleano retornará falso y se imprime un mensaje en el que se indica que la secuencia no es igual. 
 También, se podría ingresar el primer elemento a una lista y el top de la pila se compara con este si son iguales continuamos, de lo contrario se termina ejecución con mensaje de error. </t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>599bdc8c3c49d26dd1eec3d368bfd70fff27fda8a9b845a1301e8540234aaa11</t>
         </is>
       </c>
     </row>
@@ -1499,6 +1529,11 @@
 En la pila se estaría guardando la posición de la matriz y su arreglo, por ejemplo al empezar se guarda la posición de la matriz en el inicio, luego se mete la posicion del arreglo y se guarda hasta llegar al final, luego se van removiendo hasta encontrar un callejon y se repite</t>
         </is>
       </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2da41fddaa73dc776c699ffd11616fd77a3c5e4c44df9678d56a84c7bead789e</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1650,6 +1685,11 @@
         <is>
           <t>para la inserción utilizaría la primera pila y para eliminar se crearía una copia de la primera, buscando el dato que se quiera eliminar
 }</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>796c677a15f5a9f459a6f228fb8bfc8b0ad6099e9836bcaf8a3eb9090c7947b7</t>
         </is>
       </c>
     </row>
@@ -1808,6 +1848,11 @@
 COLA: A-&gt;B-&gt;C-&gt;D-&gt;E-&gt;F-&gt;G </t>
         </is>
       </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>8961a85203ec8160b1d4aa89eda11153897b186dd4075f73959d5bdad36f08e0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1958,6 +2003,11 @@
       <c r="AD10" t="inlineStr">
         <is>
           <t xml:space="preserve">La búsqueda por anchura analiza el grafo nivel por nivel. Se comienza por los niveles más cercanos a la raíz y luego se va descendiendo. Cada estado se agrega a una cola, para analizar si son validos por orden de llegada. Si no hay estados validos en un nivel se desciende al siguiente hasta encontrarlo. </t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>666bad6550c04c64ea99aa4c0f4d60b03943f5b4df9700c5f841c8dfa0cf27da</t>
         </is>
       </c>
     </row>
@@ -2122,6 +2172,11 @@
 - la pila estara vacia si ambas colas estan vacias</t>
         </is>
       </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>d9f87e78b76c94c15bc8eeb23f404136780e20d8b368fbdf900e93b445a504af</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2274,6 +2329,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>742204a0c06b4243c51d2f8cc8171547ff4e1be06689bac68f4bd3daa82c01fc</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2426,6 +2486,11 @@
           <t>Primero guardamos los elementos del árbol binario en la pila. Después creamos las variable padre, hijo mayor e hijo menor. luego obtenemos un elemento de la pila y verificamos si el padre esta ocupado o no en caso que el padre no este ocupado, lo guardamos en la variable padre, caso contrario comparamos si es mayor o menor que el padre y la disponibilidad de las variables hijo mayor o menor cuando corresponda. Si hijo mayor o menor están vacíos se guarda en el que corresponda, en caso contrario el hijo mayor o menor toma la posición del padre y ambos hijos quedaran como nulos, para luego comparar el elemento con el nuevo padre y agregarlo en hijo mayor o menor donde corresponda. cada vez que se haga un cambio a la variable padre se aumentara en 1 un contador llamado rango. cuando no queden elementos de la pila se imprimirá el valor de la variable rango.</t>
         </is>
       </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>e1c0dd04bb8f9052c3e8d29c009fae4915b0fcba55efcb5ae3d3b18c7b5085c1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2579,6 +2644,11 @@
 Para implementar una cola utilizando dos pilas, primero ambas pilas se inicializan vacías, una pila será para pacientes con menos urgencia y la otra para los que tengan un grado de urgencia mayor. Los pacientes se ingresan en la cola y luego se elimina un paciente de la cola (el primero en ingresar), se evalúa su grado de urgencia y se inserta en la pila correspondiente. A medida que los pacientes sean llamados, se van eliminando de la pila en la cual se encontraban para así hacer menos duradera la lista de espera.</t>
         </is>
       </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>e64831290d921e815fd02cc1f797a00137ef58d00026ecdc6d1fc42ce1eb863d</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2731,6 +2801,11 @@
           <t>Suponiendo que es un mapa no ordenado y que la clave es el nombre de la tarea, habría que recorrer todos los elementos del mapa y con una variable almacenar la tarea con menor prioridad, luego se vuelve a recorrer buscando la tarea con esa prioridad, se imprimen los prescendentes y luego la tarea. Ademas la tarea es señalada como que ya fue marcada, para no volverla a mostrar. Otra posible solucion seria recorrer el mapa no ordenado y en una tda creada arrayList almacenar las prioridades que se encuentran en el mapa y ordenarlas por prioridad (de menor a mayor) de esta manera al buscar ya sabemos el orden de prioridades y si se encuentra una tarea en el mapa con esa prioridad se imprimen los prescendentes recorriendolos y luego la tarea, ademas al momento de mostrar una tarea se marca que ya fue mostrada. Este algoritmo es considerando que cada tarea tiene una prioridad y una lista de tareas prescendentes. Si no se encuentra la prioridad solo habria que recorrer el mapa e imprimir todas las tareas prescedentes, marcarlas y asi con las demas, si no esta marcada como que fue mostrada esta se mostrara.</t>
         </is>
       </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>a9899947293d081ca11632c30a03427eaa2666b4c622c2182088e3f1e0ac28d6</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2883,6 +2958,11 @@
           <t>Para implementar una cola de prioridad utilizando dos pilas, una pila se utilizaría para almacenar los elementos con una prioridad más alta, mientras que la otra pila se utilizaría para almacenar los elementos con prioridad más baja. La pila superior de la pila de prioridad más alta contendría el siguiente elemento a retirar, mientras que la pila superior de la pila de prioridad más baja contendría el elemento más reciente que se agregó.</t>
         </is>
       </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>f6f9dae5f82be99782b53f97054d17e2467e48e2f6ad6c70ee343cb739c74013</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3036,6 +3116,11 @@
 Luego para ingresar el primer elemento, lo agregamos a la pila de entrada.</t>
         </is>
       </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>a714a1e854e05d43e922e4d841caffe83e7bac16399d100b5c86e4b2e8c41d05</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3188,6 +3273,11 @@
           <t>Para encontrar el camino mas corto entre un nodo A y B se podría realizar una búsqueda por profundidad en un árbol que es más ancho o en anchura si es más profundo, en esta búsqueda se van contando los nodos que recorre la función, hasta encontrar el nodo solicitado, determinando así cual seria el tipo de búsqueda más eficiente y la distancia más corta.</t>
         </is>
       </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>2692ed7d0b5ded8ca9e49252d4ab91cbd827e225154ed425e0eef0588ee57111</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3340,6 +3430,11 @@
           <t>entre las colas almaceno un dato en cada una intercalado, con esto puedo acceder a los dos últimos datos existentes por lo tanto puedo comparar sus prioridades, tendremos en cuenta cual dato es el que tiene mayor prioridad y al momento de almacenar un nuevo dato verificaremos cual es el que tiene mayor prioridad en uno y así almacenamos en el lado contrario a este, con esto tendremos un orden con el cual podemos "jugar" y realizar las inserción o eliminación ya que sabremos cual es el ultimo dato mayor de la cola y podemos realizar la inserciones o eliminaciones</t>
         </is>
       </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>32d8a1b52687131ea4e1d9461997bdbe9f16a93a5b58dc59e52289e54c277a98</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3495,6 +3590,11 @@
 En el caso que no se llegue al destino y pase por un nodo repetido sin que pueda continuar se avanzando por otro camino posibles, y vamos guardando en una lista todos los caminos que se han realizado hasta encontrar todos los caminos posibles que nos lleven del nodo A al B y ademas los que cumplieron que se llegaran del A al B se iran almacenando en un monticulo para tener la distancia mas c</t>
         </is>
       </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>51fcc5ffe51513851bf604210aaac15ec46c2033e8d7578111ca9b0b6b4ae1d0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3645,6 +3745,11 @@
       <c r="AD21" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>b44e2d72074399cd6e918c3c245eea45464746479e644fd59fda87570b003acb</t>
         </is>
       </c>
     </row>
@@ -3803,6 +3908,11 @@
 Si el ciclo termina y no se ha encontrado un camino desde el nodo A hasta el nodo B, significa que no existe un camino entre los dos nodos en el grafo.</t>
         </is>
       </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>b388d76db5b1d947dfa614f24f69ffed416049deb8d68fc631296bdc17f362fc</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3956,6 +4066,11 @@
           <t>Se usaria una cola y un grafo, primero entrariamos por el nodo A y buscariamos sus nodos adyacentes, luego recorreremos todos estos nodos y nuevamente ingresando sus nodos adyacentes a la cola, asi se seguira entrando nodo por nodo hasta que al ingresar los nodos adyacentes se encuentre el valor del nodo B indicando que esa seria la ruta mas rapida para encontrar el nodo buscado.</t>
         </is>
       </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>2544d98f9af46be4e3a8e81b3d02b78b02a0386fe42c1953b18d36de28163ef3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4110,6 +4225,11 @@
 y por ultimo retornamos la variable profundidad.</t>
         </is>
       </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>18a4591ab6248fb7a259898df107569092341fbbe5849e316f489a002d402fe5</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4262,6 +4382,11 @@
           <t>Primero, recorrería el mapa y guardaría las tareas sin precedentes en una lista, luego las tareas con precedentes en otra lista. Primero se mostrarán las tareas que no tienen precedentes, y se marcarán como completadas. La lista de las tareas que tienen precedentes se recorren, entonces, se revisan sus tareas precedentes por tarea, si tiene todas las tareas precedentes completadas, se muestra esa tarea, sino, pasa a la siguiente, en el caso de que tenga todas sus tareas precedentes marcadas como completadas, esta tarea se muestra, se marca como completada y se elimina de la lista de las tareas que tienen precedentes.</t>
         </is>
       </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>6b7e7b7afef573d9e2519740adca3d54df733d0e77007718998a1b24a7017024</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4412,6 +4537,11 @@
       <c r="AD26" t="inlineStr">
         <is>
           <t xml:space="preserve">tomaremos en cuenta que cada tarea se encuentra en un mapa ordenado y que no existe un dato de prioridad. en primer lugar revisamos cada nodo de el mapa, revisando si la tarea contiene alguna tarea precedente, si la tarea no contiene una tarea precedente, simplemente se imprime la tarea en si, de lo contrario, imprimimos las tareas, las marcamos como visitadas, y si en algún nodo, su tarea ya se encuentra visitada esta se ignora debido a que ya a sido imprimida, y seguimos este procedimiento hasta acabar el mapa. </t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>148307b2ec2e15ae19be54488409104dafbc4d58c3692bb0b2e938608e0844ee</t>
         </is>
       </c>
     </row>
@@ -4575,6 +4705,11 @@
           <t>--</t>
         </is>
       </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>f338fff184c41c31c5c8d8c5a52a150d9d769ea079957a18feee2dcd64af089b</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4733,6 +4868,11 @@
           <t>Para realizar inserciones en la cola con prioridad con prioridad insertar en la pila1 y en la cola con prioridad y en caso que que se deba inserta al medio de la cola se utiliza la pila2 y cambiando de la pila 1 a la 2 e insertando en la posicion adecuada</t>
         </is>
       </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>715fcb8f16b5ce68c4216e21bd93735575a220c6a1bc4aaa5436f76a93bd935c</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4889,6 +5029,11 @@
 Al hacer estos pasos, se crearia una pila con los datos que tuvieron las dos colas</t>
         </is>
       </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>cf692c9d5f0a8a2d0e86dd6a6f504eff919f2de48d2abceead3a7970217bd2a9</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5037,6 +5182,11 @@
           <t>Se utiliza la cola para mantener un seguimiento de los nodos a visitar. Primero parte con un nodo de inicio, se marca como visitado y se inserta en la cola. Después, mientras la cola no esté vacía, se extrae un nodo de la cola, y se inserta sus vecinos no visitados en la cola.</t>
         </is>
       </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>10ddc3fbd053249c7636a2183cba0f7dabaaa32bffa1bc2e7f7c59ffe77c4961</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5194,6 +5344,11 @@
 Al finalizar el recorrido, verifica si todos los nodos del grafo han sido visitados y si todos los nodos han sido visitados, el grafo es un árbol.</t>
         </is>
       </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>331ffd580ebbb330835f6308ac174efdece4c1c3fe8631384caf7cc19b22aeaf</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5346,6 +5501,11 @@
           <t>Al tratarse de un laberinto y búsqueda del camino desde la entrada hasta la salida, se asume que hay un grafo, donde cada nodo representará un estado. Cada estado será la misma matriz con un movimiento de por ejemplo una persona, lo que se marcará con 1. El alrededor que sea muro se representará como 9 y los espacios movibles son marcados con 0. Con esto en mente podemos implementar el algoritmo de búsqueda en profundidad, el cual mediante una pila y una serie de operaciones en esta misma determinará el camino que lleva hasta la salida del laberinto. En esta solo se almacenan los nodos de una rama del árbol. (árbol debido a que esta búsqueda tienen un aspecto de un árbol, lo que se conoce como árbol de búsqueda).</t>
         </is>
       </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>c724ba60aaeaf2387ef7a084282b5aa11123c31460943d9332d261b4ea287358</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5496,6 +5656,11 @@
       <c r="AD33" t="inlineStr">
         <is>
           <t>para encontrar  el camino mas corto entre nodos , se puede inicializar una cola en este caso en 0,  y en el momento que visite el nodo A agregarlo a la cola y marcarlo como visitado, y luego crear un tipo de condicion que verifique que ya paso por el nodo A es decir que la cola no se encuentre vacia y mientras la cola no este vacia se extrae el primer elemento de la cola y Si el nodo extraído es igual al nodo B, hemos encontrado el camino más corto. ME QUEDE SIN TIEMPO AAAAAAA</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>9ae6e71ba7122de6a60ba5ba2dfe6d893b7a24b6a1688039a8cbb2a8745e25f6</t>
         </is>
       </c>
     </row>
@@ -5668,6 +5833,11 @@
 }</t>
         </is>
       </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>0c20396a142c23ae156e38ab8d8d01898f0cd11fd25d7a335741cf8e4c4fd2c7</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5818,6 +5988,11 @@
       <c r="AD35" t="inlineStr">
         <is>
           <t>se partiria en el primer punto del gafo tomado como su head y se realizaria una busqueda en profundidad utilizando la pila para ir guardando los nodos hijos de cada nodo e ir revizando con la condicion de que se vaya guardando el primer nodo revisado se colocaria la condicion if(nodovader==nodoluke) se daria la alerta de que el grafo presenta un ciclo en sus nodos</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>e27720b6f76bfcb5c8e8295035e37226800da9dcbf9b20a36e1491a305bbf7e7</t>
         </is>
       </c>
     </row>
@@ -5977,6 +6152,11 @@
 si al finalizar de recorrer este grafo encontramos que todos los nodos han sido visitados es decir que efectivamente es un arbol.</t>
         </is>
       </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>a15c4e3d6feaf2526f22d3909e83948ead2415addd44afdeb4d5ec2ada12f2f3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6129,6 +6309,11 @@
           <t>Iría llenando las pilas con menor prioridad en la pila 1 y con la de mayor prioridad en la pila 2 y al momento de insertar se veria que prioridad tiene si esta mas cercana a la de menor o mayor, ejemplo en caso de ser prioridad 2  se iría sacando las que están en prioridad 1 y guardandolas en la pila 2, luego guardar el elemento en la pila 1 y la pila 2 cambiaria, seria practicamente igual en la de eliminacion, seria jugar como un ping pong entre los elementos de las pilas.</t>
         </is>
       </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>d5481010854129aec7960ce8f12d217e5ee4c536d9709736b25346b69a9ef1c5</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6281,6 +6466,11 @@
           <t>Primero iniciazamos una pila y agregaríamos el nodo raíz del árbol binario, para después crear una variable profundidad en 0 y mientras que la pila no este vacía vemos si  la hoja del árbol binario es un nodo hoja, actualizaremos la profundidad  si la profundidad  es mayor a su nivel actual. peros si la hoja del árbol no es un nodo hoja, empujaremos los nodos hojas hijos si es que los tiene a la pila junto con sus niveles correspondientes  (nivel = nodoHoja + 1) y retornariamos la profundidad.</t>
         </is>
       </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>2eb043710c2b007988d5939aab15843cb0014597f9a9abd511dbefb8307386fc</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6433,6 +6623,11 @@
           <t>La pila en cuestión serán todas las direcciones que tome el usuario, por ejemplo, el algoritmo entra por el entrada, después empieza a tomar decisiones, siempre de izquierda a derecha, donde, si toma una decisión equivocada eliminará la decisión hecha y retornará al punto donde tomó la decisión, entonces, sigamos con el ejemplo, el algoritmo no encontró más camino por la izquierda, por lo que deberá seguir por los otros caminos, descartando por completo la izquierda, y así sucesivamente hasta encontrar el camino correcto, si por algún motivo ninguno de los caminos que tomó, de izquierda a derecha (supongo que también considera arriba), no llevan a ningún lado, vuelve más atrás, donde repite el mismo proceso, eliminando y agregando continuamente las decisiones.</t>
         </is>
       </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>7676776f6bdb12640e31295b13b156a1446d817b3af3382cfc825c5214f984fc</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6584,6 +6779,11 @@
         <is>
           <t>Cuando se recorra la secuencia, si se reconoce una entrada de llave y/o corchete ("{[(") este se debe ingresar a la pila. Luego, se empieza un ciclo en donde si se reconoce un cierre de llave y/o corchete se recorra la pila para verificar de que exista algún "abre" corchete y/o llave ("{[(") si es así, se elimina de la pila y se repite el proceso las veces que sea necesario. En el caso de que se reconozca un cierre corchete y/o llave y no exista el símbolo correspondiente en la pila ("{[("), se retorna false ya que no está la secuencia completa. 
 Si se itera y encontró siempre las secuencias, se retorna true.</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>ba33d4bf42f5fda5905231be056e901b6a555e667a369b5ecfe45ebfc462d6b6</t>
         </is>
       </c>
     </row>
@@ -6738,6 +6938,11 @@
 Mientras recorremos partemos desde la mitad del largo de la secuencia, y verificamos si cada llave o corchete tiene su contraparte para anidar, si es que esta anidada completa,ente returna true</t>
         </is>
       </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>e60dfc5988e0df15ac81b2d48ff953ea11b126aa9eaafecfe9a9ba376600bc5d</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6888,6 +7093,11 @@
       <c r="AD42" t="inlineStr">
         <is>
           <t>para poder implementar la cola con 2 pilas, la primera pila será llenada con los datos insertado en donde el ultimo estará en el top y abajo estará los que van antes, entonces a la pila se le hará un pop y antes de esto será guardado en un auxiliar para luego hacer un push en la 2da pila que estará vacía , así los elementos de la primera pila estarán el orden alreves que la primera, así los elementos serán procesados por el respectivo orden de llegada</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>305a012b3fc3d45a78dedad3d5ee4a9886cdf5ff8ff3f73eca0e1c963aa9d02c</t>
         </is>
       </c>
     </row>
@@ -7059,6 +7269,11 @@
 (Luego de terminar el paso 3 se habría recorrido todo el grafo).</t>
         </is>
       </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>98355088359c48b40e793cd953dec4f5c85553375744e380d60d4312fcc8f4d0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7217,6 +7432,11 @@
 Si se encuentra, el grafo contiene un ciclo, sino, es acíclico.</t>
         </is>
       </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>96d6b3042d06bea20df1ed1ceae5d53d7257d54dbe04b5af6bc421a8eaa9e36c</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7369,6 +7589,11 @@
           <t>Primero recorremos el árbol partiendo desde la raíz y vamos almacenando la cantidad de arcos en una pila. Luego creamos una variable auxiliar donde vamos a almacenar el dato más grande y vamos comparando a medida que eliminamos los datos de la pila.</t>
         </is>
       </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>26ee26a9c11cb0e8ae6a758628e8c643b72db1f3721c585d0915f752914efc26</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7521,6 +7746,11 @@
           <t>se podria verificar si es un arbol con una busqueda por anchura y ver si estan ordenados de la forma de un arbol, es decir, que al lado izquierdo esten los menores siempre y no haya un valor mayor al anterior hasta pasar al lado derecho de los nodos</t>
         </is>
       </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>810b222c790d328b92f786101234c488f3bf27bdb9079dc221eab2d2ad451301</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7673,6 +7903,11 @@
           <t>Iterar sobre los nodos adyacentes del nodo A, guardar todos los nodos que tengan distancia 1 y conecten con un nodo que tenga relacion con el nodo B</t>
         </is>
       </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>dc80ecb6a674703ea5d016314585c6a222ef92c5bdd76e38cf13ce6fb01e4313</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7825,6 +8060,11 @@
           <t xml:space="preserve">Dado que la pila almacena los datos de llegada en orden contrario a la cola, se utilizará una pila principal y otra auxiliar; para llenar la cola , se insertan todos los datos en la pila auxiliar, y dado que están en orden inverso a la cola, se insertan los datos de la pila auxiliar en la pila principal, de esta forma, el top de la pila principal será el primer dato ingresado por el usuario, esto dado que es el último dato de la pila auxiliar; de esta forma, se conserva el orden necesario para utilizar una cola. </t>
         </is>
       </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>2fc61137df2e6f47c281cab32108184afae75b48b3a78467103497daaafbf6a0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7976,6 +8216,11 @@
         <is>
           <t>La búsqueda en anchura (o BFS) es un algoritmo de tipo FIFO (First In, First Out) el cual busca los nodos de cierto nivel antes de pasar al siguiente, buscando los caminos mas "cortos" entre nodos. Para poder implementar esto en una cola, se podria hacer lo siguiente:
 Se inicia la cola estando vacia, y despues se le añade el nodo inicial, luego de eso se puede iniciar un conjunto que añada los nodos visitados, y que añada al nodo inicial. El siguiente paso seria recorrer toda la cola hasta que esta quede vacia, es decir sacar el primer nodo de la cola para despues procesar el nodo actual según sea necesario. Obtener todos los vecinos no visitados del nodo actual y para cada uno de estos marcarlo como visitado y agregarlo a la cola. Es necesario calcar que a pesar de ser una excelente forma de recorrer la cola y el grafo, no es necesariamente la forma más optima de lograr una busqueda.</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>849c93bb3b1589b0b2b46cdc9b108e72698150e27fba5ab76a2b939fc35cfc3e</t>
         </is>
       </c>
     </row>
@@ -8130,6 +8375,11 @@
       <c r="AD50" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>262a806bb10f97a4507de7506c539a4c6eb3a2f81f0e78df4ab088a70346c78d</t>
         </is>
       </c>
     </row>
@@ -8291,6 +8541,11 @@
 Con esto en mente la cola almacenaría los nodos a visitar, entonces cuando se encuentre el dato a buscar, en la cola se guardaría el camino mas corto al dato.</t>
         </is>
       </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>dd28aeecb07294a33f66d18f44878aafc780ac84dcdecf2220008e014ae47a21</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8441,6 +8696,11 @@
       <c r="AD52" t="inlineStr">
         <is>
           <t>Se puede implementar una lista con los nodos visitados, y se elige un nodo inicial para agregarlo a esa estructura. Se inicia el recorrido con el DFS con la pila desde el nodo inicial. Mientras que hayan nodos sin visitar, se toma ese elemento y lo marca como visitado. Después se recorre todos los nodos adyacentes del nodo actual, si alguno ya fue visitado, entonces el grafo no es una árbol, ya que posee un ciclo. Si se recorren todos los nodos y no se encontraron ciclos, entonces el grafo es efectivamente un árbol.</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>529a8502a1fee727263b63e8650da1856daf3602704a0ee09ba2b736498c0378</t>
         </is>
       </c>
     </row>
@@ -8604,6 +8864,11 @@
 - Para la eliminacion, se deben apilar todos los elementos de la pila 1 a la 2, e ir eliminando la cima de la pila 2, ya que quedarian de forma ordenada por prioridad, siendo la cima la prioridad mas alta.</t>
         </is>
       </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>6ce8cc856d5b43facb239d4ab71f10dc62cae880d0ceef87f49dd28f41a20af8</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8756,6 +9021,11 @@
           <t>Asumiendo que cada tarea tiene su propia prioridad, podemos ingresar las tareas del mapa sin precedencia en un montículo que los ordene en base a su prioridad. Las tareas ingresadas deberán ser marcadas como visitadas. Luego, se ingresa la raíz del montículo en una nueva lista. Los datos ingresados en esta lista deberán ser marcados como explorados. Del mapa de tareas se toman las tareas cuyas precedencias estén marcadas como exploradas y se ingresan en el montículo donde nuevamente se agrega la raiz a la lista. Se repite este proceso hasta que se hayan explorado todas las tareas del mapa.</t>
         </is>
       </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>1d0bf77d78630b85568429a8d514582975d3f9b00324e52ffb803c3aa095f6ac</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8910,6 +9180,11 @@
 Para la eliminacion hariamos un recorrido parecido, la diferencia es que en vez de ingresar un nuevo dato a la pila2 habria que ignorarlo.</t>
         </is>
       </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>525110c4025582d5bf57b6b7aa42f21957548ec70649ef3a22f5b7e16c1c5658</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9064,6 +9339,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>fb3d98824f61cca6a1b8bf0630ca89e7bcf24e8347b498b68ef6c56bcbbd10af</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9216,6 +9496,11 @@
           <t>en la primera cola se insertarían los datos por defecto, mientras que en la segunda cola se irán insertando datos de la primera, que como están en orden de first in last out, quedarán de forma ordenada "first in first out".</t>
         </is>
       </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>e145347968bd263521a1e080efc9744916a40eb8b87d8dc2713971e38c766411</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9367,6 +9652,11 @@
       <c r="AD58" t="inlineStr">
         <is>
           <t>para poder implementar una cola a través de 2 pilas, debemos tener en consideración que las funciones de inserción y eliminación se deben de mover todos los datos para poder realizar tales funciones (teniendo en consideración que no se usan nodos), es por eso que se requieren 2 pilas, 1 que será la pila principal y otra que será un auxiliar que guardara el principal para colocarlo en otra posición.</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>06b88cdb151e3da095945a913099ec007ee4c3590b7c3eee24cf9130fb9e1ee1</t>
         </is>
       </c>
     </row>
@@ -9523,6 +9813,11 @@
 ejemplo: la primera cola guarda el dato, luego reviso si el dato de la otra cola es menor, en caso de que sea menor las intercambio.
 para la eliminación seria algo similar a la inserción
 ejemplo: tengo un auxiliar que guarda el dato a eliminar, luego le voy pasando los datos de una cola a otra hasta encontrar el dato a eliminar, si no lo encuentra, se restablece la segunda pila</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>51ccac0e63973d7dcdcc0e0b7376516daf7ef0f1bbdea79826eeee89e2991e67</t>
         </is>
       </c>
     </row>
